--- a/Departments/SEE.xlsx
+++ b/Departments/SEE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11443B70-403B-405C-9F60-0B9EA4B8D0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C02CE0-272A-4739-9C69-393A6243801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{235F6541-F56E-46B6-A2F1-41DB1774C918}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{235F6541-F56E-46B6-A2F1-41DB1774C918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -853,6 +847,12 @@
   </si>
   <si>
     <t>Prereq: BC Principles of Physics 12, or PHYS 100 or equivalent, with a minimum grade of C-. Corequisite: MATH 150 or 151 or 154.  Students with credit for PHYS 125 or 120 or 101 may not take this course for further credit. Quantitative/Breadth-Science</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I80"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,2241 +1226,2241 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
         <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
         <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
         <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>103</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
         <v>104</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
         <v>105</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
         <v>109</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
         <v>114</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>115</v>
       </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>116</v>
-      </c>
-      <c r="H32" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
         <v>119</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" t="s">
         <v>120</v>
-      </c>
-      <c r="E33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
         <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
         <v>128</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
         <v>129</v>
-      </c>
-      <c r="E36" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
         <v>132</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
         <v>133</v>
-      </c>
-      <c r="E37" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" t="s">
         <v>136</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
         <v>137</v>
-      </c>
-      <c r="E38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
         <v>140</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
         <v>141</v>
-      </c>
-      <c r="E39" t="s">
-        <v>142</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
         <v>144</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" t="s">
-        <v>140</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" t="s">
         <v>149</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
         <v>150</v>
-      </c>
-      <c r="E42" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
         <v>153</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>154</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" t="s">
         <v>155</v>
       </c>
-      <c r="E43" t="s">
+      <c r="I43" t="s">
         <v>156</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I43" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" t="s">
         <v>159</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E44" t="s">
-        <v>161</v>
-      </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
         <v>162</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>163</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>164</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" t="s">
         <v>165</v>
       </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
         <v>166</v>
-      </c>
-      <c r="G45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" t="s">
-        <v>167</v>
-      </c>
-      <c r="I45" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
         <v>169</v>
       </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" t="s">
         <v>170</v>
-      </c>
-      <c r="E46" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" t="s">
         <v>174</v>
       </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
         <v>175</v>
-      </c>
-      <c r="E48" t="s">
-        <v>176</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" t="s">
         <v>178</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
         <v>179</v>
-      </c>
-      <c r="E49" t="s">
-        <v>180</v>
-      </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" t="s">
         <v>182</v>
       </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
         <v>183</v>
-      </c>
-      <c r="E50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" t="s">
-        <v>180</v>
-      </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" t="s">
         <v>186</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
         <v>187</v>
-      </c>
-      <c r="E51" t="s">
-        <v>188</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" t="s">
         <v>190</v>
       </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
         <v>191</v>
-      </c>
-      <c r="E52" t="s">
-        <v>192</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" t="s">
         <v>196</v>
       </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" t="s">
-        <v>198</v>
-      </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" t="s">
         <v>198</v>
       </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
         <v>199</v>
-      </c>
-      <c r="E55" t="s">
-        <v>200</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
         <v>206</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" t="s">
         <v>209</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
         <v>210</v>
-      </c>
-      <c r="E59" t="s">
-        <v>211</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" t="s">
         <v>213</v>
       </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
         <v>214</v>
-      </c>
-      <c r="E60" t="s">
-        <v>215</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" t="s">
         <v>219</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
         <v>220</v>
-      </c>
-      <c r="E62" t="s">
-        <v>221</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
         <v>229</v>
-      </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>230</v>
-      </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
         <v>236</v>
-      </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s">
-        <v>237</v>
-      </c>
-      <c r="E69" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
         <v>241</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>242</v>
-      </c>
-      <c r="E71" t="s">
-        <v>236</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
         <v>246</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>247</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
         <v>249</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
-        <v>250</v>
-      </c>
-      <c r="E74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" t="s">
-        <v>97</v>
-      </c>
-      <c r="G74" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76" t="s">
+        <v>247</v>
+      </c>
+      <c r="F76" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
         <v>254</v>
-      </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
-        <v>255</v>
-      </c>
-      <c r="E76" t="s">
-        <v>249</v>
-      </c>
-      <c r="F76" t="s">
-        <v>97</v>
-      </c>
-      <c r="G76" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>255</v>
+      </c>
+      <c r="H77" t="s">
         <v>257</v>
-      </c>
-      <c r="D77" t="s">
-        <v>258</v>
-      </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s">
-        <v>257</v>
-      </c>
-      <c r="H77" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>258</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" t="s">
         <v>260</v>
       </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
+      <c r="H78" t="s">
+        <v>155</v>
+      </c>
+      <c r="I78" t="s">
         <v>261</v>
-      </c>
-      <c r="E78" t="s">
-        <v>262</v>
-      </c>
-      <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s">
-        <v>116</v>
-      </c>
-      <c r="H78" t="s">
-        <v>157</v>
-      </c>
-      <c r="I78" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D79" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>114</v>
+      </c>
+      <c r="H79" t="s">
+        <v>155</v>
+      </c>
+      <c r="I79" t="s">
         <v>264</v>
-      </c>
-      <c r="E79" t="s">
-        <v>265</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s">
-        <v>116</v>
-      </c>
-      <c r="H79" t="s">
-        <v>157</v>
-      </c>
-      <c r="I79" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" t="s">
         <v>267</v>
       </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
         <v>268</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
+        <v>114</v>
+      </c>
+      <c r="H80" t="s">
+        <v>165</v>
+      </c>
+      <c r="I80" t="s">
         <v>269</v>
-      </c>
-      <c r="F80" t="s">
-        <v>270</v>
-      </c>
-      <c r="G80" t="s">
-        <v>116</v>
-      </c>
-      <c r="H80" t="s">
-        <v>167</v>
-      </c>
-      <c r="I80" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/SEE.xlsx
+++ b/Departments/SEE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C02CE0-272A-4739-9C69-393A6243801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7D239-C361-4295-A99D-05CE5E4080DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{235F6541-F56E-46B6-A2F1-41DB1774C918}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{235F6541-F56E-46B6-A2F1-41DB1774C918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="279">
   <si>
     <t>Course_Code</t>
   </si>
@@ -93,9 +93,6 @@
     <t>SEE111,SEE224,SEE242,SEE251</t>
   </si>
   <si>
-    <t>Prerequisite: Completion of one co-op work term; SEE 111, 224, 242, 251.</t>
-  </si>
-  <si>
     <t>SEE324</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>PHYS141,SEE224,SEE225</t>
   </si>
   <si>
-    <t>Prerequisite: PHYS 141, SEE 224, SEE 225.</t>
-  </si>
-  <si>
     <t>SEE325</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>SEE100,SEE221,SEE324</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 100, SEE 221, and SEE 324.</t>
-  </si>
-  <si>
     <t>SEE332</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>SEE251,SEE331</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 251, SEE 331.</t>
-  </si>
-  <si>
     <t>SEE351</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>SEE222,SEE224</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 222, SEE 224</t>
-  </si>
-  <si>
     <t>SEE354</t>
   </si>
   <si>
@@ -165,9 +150,6 @@
     <t>SEE222,SEE324,SEE331</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 222, SEE 331, SEE 324.</t>
-  </si>
-  <si>
     <t>SEE390</t>
   </si>
   <si>
@@ -177,9 +159,6 @@
     <t>SEE290,SEE294</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 290 or SEE 294.</t>
-  </si>
-  <si>
     <t>SEE410W</t>
   </si>
   <si>
@@ -189,18 +168,12 @@
     <t>FALX99</t>
   </si>
   <si>
-    <t>Prerequisite: Completion of at least 24 units from the upper division list of SEE courses and completion of two co-op terms.  SEE students cannot take MSE 410, MSE 411, ENSC 405W or ENSC 440 for further credit. Writing.</t>
-  </si>
-  <si>
     <t>SEE411</t>
   </si>
   <si>
     <t>SEE 411 - Sustainable Energy Systems Design Project</t>
   </si>
   <si>
-    <t>REQ: SEE 410W. Must be taken in the term immediately following 410W. In order to obtain credit, students must successfully complete both SEE 410W and SEE 411.  SEE students cannot take MSE 410, MSE 411, ENSC 405W or ENSC 440 for credit.</t>
-  </si>
-  <si>
     <t>SEE464</t>
   </si>
   <si>
@@ -228,18 +201,12 @@
     <t>SEE390,SEE394</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 390 or SEE 394.</t>
-  </si>
-  <si>
     <t>SEE498</t>
   </si>
   <si>
     <t>SEE 498 - Sustainable Energy Engineering Undergraduate Honours Thesis Proposal</t>
   </si>
   <si>
-    <t>REQ:At least 115 units with a minimum 3.0 CGPA and approval of the department, or permission of the academic supervisor.</t>
-  </si>
-  <si>
     <t>SEE499</t>
   </si>
   <si>
@@ -279,15 +246,6 @@
     <t>REQ-Corequisite: SEE 896 or SEE 897. Recommended: SEE 222.</t>
   </si>
   <si>
-    <t>SEE821</t>
-  </si>
-  <si>
-    <t>SEE 821 - Membranes and Filtration</t>
-  </si>
-  <si>
-    <t>REQ-Corequisite: SEE 896 or SEE 897. Recommended: SEE 224 and SEE 225.</t>
-  </si>
-  <si>
     <t>SEE830</t>
   </si>
   <si>
@@ -300,9 +258,6 @@
     <t>SEE 891 - Directed Studies</t>
   </si>
   <si>
-    <t>Corequisite: SEE 896 or SEE 897.</t>
-  </si>
-  <si>
     <t>SEE894</t>
   </si>
   <si>
@@ -336,9 +291,6 @@
     <t>SEE 898 - MASc Thesis</t>
   </si>
   <si>
-    <t>Corequisite: SEE 896.</t>
-  </si>
-  <si>
     <t>CMPT130</t>
   </si>
   <si>
@@ -471,9 +423,6 @@
     <t>SEE 231 - Electronic Devices and Systems</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 230. Students with credit for MSE 251 or ENSC 225 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>SEE290</t>
   </si>
   <si>
@@ -489,9 +438,6 @@
     <t>SEE231,SEE251</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 231 and SEE 251.  Students with credit for MSE 353 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>MATH152</t>
   </si>
   <si>
@@ -501,9 +447,6 @@
     <t>MATH 152 - Calculus II</t>
   </si>
   <si>
-    <t>FANX99,MATH150,MATH151,MATH154,MATH155,MATH157</t>
-  </si>
-  <si>
     <t>MATHEMATIC</t>
   </si>
   <si>
@@ -549,9 +492,6 @@
     <t>CHEM109,CHEM111,CHEMX12,FANX99</t>
   </si>
   <si>
-    <t>REQ-Chemistry 12 with a minimum grade of B, or CHEM 109 or 111 with a minimum grade of C-. Students with credit for CHEM 120 or 125 may not take this course for further credit. Quantitative/Breadth-Science.</t>
-  </si>
-  <si>
     <t>SEE 110 - Energy, Environment and Society</t>
   </si>
   <si>
@@ -576,9 +516,6 @@
     <t>MATH251</t>
   </si>
   <si>
-    <t>Prerequisite: MATH 251.</t>
-  </si>
-  <si>
     <t>SEE241</t>
   </si>
   <si>
@@ -636,9 +573,6 @@
     <t>SEE230,SEE242</t>
   </si>
   <si>
-    <t>Prerequisite:    SEE 242, SEE 230.  Students with credit for MSE 280 or ENSC 380 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>SEE342</t>
   </si>
   <si>
@@ -657,9 +591,6 @@
     <t>SEE 402 - Professional Engineering Ethics and Practice</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 110; Minimum of 100 units OR 80 units plus two-term co-op work.  Students with credit for ENSC 406 or MSE 402 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>SEE460</t>
   </si>
   <si>
@@ -669,9 +600,6 @@
     <t>SEE100,SEE221,SEE222</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 100, SEE 221, SEE 222.</t>
-  </si>
-  <si>
     <t>SEE461</t>
   </si>
   <si>
@@ -681,9 +609,6 @@
     <t>SEE221,SEE231</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 221, SEE 231.</t>
-  </si>
-  <si>
     <t>SEE462</t>
   </si>
   <si>
@@ -699,9 +624,6 @@
     <t>CMPT130,SEE231</t>
   </si>
   <si>
-    <t>Prerequisite: CMPT 130, SEE 231.</t>
-  </si>
-  <si>
     <t>SEE465</t>
   </si>
   <si>
@@ -786,9 +708,6 @@
     <t>SEE 890 - PhD Qualifying Exam</t>
   </si>
   <si>
-    <t>Corequisite: SEE 897.</t>
-  </si>
-  <si>
     <t>SEE893</t>
   </si>
   <si>
@@ -801,9 +720,6 @@
     <t>SEE 899 - PhD Thesis</t>
   </si>
   <si>
-    <t>Prerequisite: SEE 890. Corequisite: SEE 897.</t>
-  </si>
-  <si>
     <t>EDUC</t>
   </si>
   <si>
@@ -853,6 +769,111 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>REQ-Chemistry 12 with a min grade of B, or CHEM 109 or 111 with a min grade of C- or CHEM 110 and 115, both with a min grade of C-.  Students with credit for CHEM 120 or 125 may not take this course for further credit. Quantitative/Breadth-Science.</t>
+  </si>
+  <si>
+    <t>FANX99,MATH150,MATH151,MATH154,MATH157</t>
+  </si>
+  <si>
+    <t>MSE312</t>
+  </si>
+  <si>
+    <t>MSE 312 - Mechatronics Design II</t>
+  </si>
+  <si>
+    <t>MSE110,MSE320,MSE381</t>
+  </si>
+  <si>
+    <t>MSE381</t>
+  </si>
+  <si>
+    <t>REQ-MATH 251</t>
+  </si>
+  <si>
+    <t>REQ-SEE 230. Students with credit for MSE 251 or ENSC 225 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-Completion of one co-op work term; SEE 111, 224, 242, 251.</t>
+  </si>
+  <si>
+    <t>REQ-PHYS 141, SEE 224, SEE 225.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 100, SEE 221, and SEE 324.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 231 and SEE 251.  Students with credit for MSE 353 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 251, SEE 331.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 242, SEE 230.  Students with credit for MSE 280 or ENSC 380 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 222, SEE 224</t>
+  </si>
+  <si>
+    <t>REQ-SEE 222, SEE 331, SEE 324.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 290 or SEE 294.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 110; Minimum of 100 units OR 80 units plus two-term co-op work.</t>
+  </si>
+  <si>
+    <t>REQ-Completion of at least 24 units from the upper division list of SEE courses and completion of two co-op terms.  SEE students cannot take MSE 410, MSE 411, ENSC 405W or ENSC 440 for further credit. Writing.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 410W. Must be taken in the term immediately following 410W. In order to obtain credit, students must successfully complete both SEE 410W and SEE 411.  SEE students cannot take MSE 410, MSE 411, ENSC 405W or ENSC 440 for credit.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 100, SEE 221, SEE 222.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 221 and SEE 231.</t>
+  </si>
+  <si>
+    <t>REQ-CMPT 130, SEE 231.</t>
+  </si>
+  <si>
+    <t>MSE312,SEE310</t>
+  </si>
+  <si>
+    <t>REQ-SEE 310 or MSE 312. Retrieving data. Wait a few seconds and try to cut or copy again.</t>
+  </si>
+  <si>
+    <t>SEE466</t>
+  </si>
+  <si>
+    <t>SEE 466 - Renewable Energy Systems and Distributed Generation</t>
+  </si>
+  <si>
+    <t>REQ-SEE 251.  Students with credit for SEE 476 under the title "Renewable Energy Systems" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 390 or SEE 394.</t>
+  </si>
+  <si>
+    <t>REQ-At least 115 units with a minimum 3.0 CGPA and approval of the department, or permission of the academic supervisor.</t>
+  </si>
+  <si>
+    <t>SEE870</t>
+  </si>
+  <si>
+    <t>SEE 870 - Sustainable Vehicle Propulsion Technologies</t>
+  </si>
+  <si>
+    <t>REQ-Corequisite: SEE 897.</t>
+  </si>
+  <si>
+    <t>REQ-Corequisite: SEE 896.</t>
+  </si>
+  <si>
+    <t>REQ-SEE 890. Corequisite: SEE 897.</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3CEDF5-BACC-4EBD-9605-00193F2EEB1B}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1243,106 +1264,106 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1351,172 +1372,166 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1525,99 +1540,96 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>146</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1626,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1639,14 +1651,11 @@
       </c>
       <c r="H15" t="s">
         <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1655,10 +1664,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1670,12 +1679,12 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1684,10 +1693,10 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1697,14 +1706,11 @@
       </c>
       <c r="H17" t="s">
         <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1713,10 +1719,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1726,11 +1732,14 @@
       </c>
       <c r="H18" t="s">
         <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1739,10 +1748,10 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1752,11 +1761,14 @@
       </c>
       <c r="H19" t="s">
         <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1765,10 +1777,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1778,11 +1790,14 @@
       </c>
       <c r="H20" t="s">
         <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1791,13 +1806,13 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -1806,12 +1821,12 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1820,13 +1835,13 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -1835,12 +1850,12 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1849,10 +1864,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1862,11 +1877,14 @@
       </c>
       <c r="H23" t="s">
         <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1875,13 +1893,13 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -1890,12 +1908,12 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1904,13 +1922,13 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -1919,12 +1937,12 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1933,10 +1951,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1948,12 +1966,12 @@
         <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1962,10 +1980,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1975,11 +1993,14 @@
       </c>
       <c r="H27" t="s">
         <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1988,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -2005,7 +2026,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -2014,39 +2035,36 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
-      </c>
-      <c r="I29" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -2055,27 +2073,27 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -2084,70 +2102,73 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -2156,10 +2177,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -2169,11 +2190,14 @@
       </c>
       <c r="H34" t="s">
         <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2182,10 +2206,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -2197,12 +2221,12 @@
         <v>13</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2211,10 +2235,10 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -2224,14 +2248,11 @@
       </c>
       <c r="H36" t="s">
         <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2240,10 +2261,10 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -2255,12 +2276,12 @@
         <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2269,10 +2290,10 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -2282,14 +2303,11 @@
       </c>
       <c r="H38" t="s">
         <v>13</v>
-      </c>
-      <c r="I38" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2298,13 +2316,13 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -2313,12 +2331,12 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2327,10 +2345,10 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -2342,12 +2360,12 @@
         <v>13</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2356,10 +2374,10 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -2369,11 +2387,14 @@
       </c>
       <c r="H41" t="s">
         <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2382,10 +2403,10 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2397,125 +2418,128 @@
         <v>13</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="I43" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="I45" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="I46" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2524,10 +2548,10 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -2537,11 +2561,14 @@
       </c>
       <c r="H47" t="s">
         <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2550,10 +2577,10 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
@@ -2565,12 +2592,12 @@
         <v>13</v>
       </c>
       <c r="I48" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2579,10 +2606,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -2592,14 +2619,11 @@
       </c>
       <c r="H49" t="s">
         <v>13</v>
-      </c>
-      <c r="I49" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2608,13 +2632,13 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -2623,12 +2647,12 @@
         <v>13</v>
       </c>
       <c r="I50" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2637,10 +2661,10 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
@@ -2652,12 +2676,12 @@
         <v>13</v>
       </c>
       <c r="I51" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2666,10 +2690,10 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -2681,12 +2705,12 @@
         <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2695,10 +2719,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2708,11 +2732,14 @@
       </c>
       <c r="H53" t="s">
         <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2721,10 +2748,10 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -2738,7 +2765,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2747,10 +2774,10 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
         <v>11</v>
@@ -2760,23 +2787,20 @@
       </c>
       <c r="H55" t="s">
         <v>13</v>
-      </c>
-      <c r="I55" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
         <v>200</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" t="s">
-        <v>201</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -2793,31 +2817,31 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
         <v>202</v>
       </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
         <v>203</v>
-      </c>
-      <c r="E57" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2834,7 +2858,7 @@
         <v>205</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -2846,12 +2870,12 @@
         <v>13</v>
       </c>
       <c r="I58" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2860,10 +2884,10 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
@@ -2875,12 +2899,12 @@
         <v>13</v>
       </c>
       <c r="I59" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2889,10 +2913,10 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -2904,12 +2928,12 @@
         <v>13</v>
       </c>
       <c r="I60" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2918,10 +2942,10 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
@@ -2931,11 +2955,14 @@
       </c>
       <c r="H61" t="s">
         <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2944,10 +2971,10 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -2957,14 +2984,11 @@
       </c>
       <c r="H62" t="s">
         <v>13</v>
-      </c>
-      <c r="I62" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2973,7 +2997,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2990,7 +3014,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -2999,10 +3023,10 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -3012,11 +3036,14 @@
       </c>
       <c r="H64" t="s">
         <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -3025,7 +3052,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -3042,7 +3069,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -3051,7 +3078,7 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -3064,14 +3091,11 @@
       </c>
       <c r="H66" t="s">
         <v>13</v>
-      </c>
-      <c r="I66" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -3080,10 +3104,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -3095,12 +3119,12 @@
         <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -3109,7 +3133,7 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -3126,7 +3150,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -3135,10 +3159,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
@@ -3148,14 +3172,11 @@
       </c>
       <c r="H69" t="s">
         <v>13</v>
-      </c>
-      <c r="I69" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -3164,24 +3185,27 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -3190,10 +3214,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -3203,14 +3227,11 @@
       </c>
       <c r="H71" t="s">
         <v>13</v>
-      </c>
-      <c r="I71" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -3219,24 +3240,27 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -3245,27 +3269,24 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
-      </c>
-      <c r="I73" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3274,13 +3295,13 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -3289,12 +3310,12 @@
         <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -3303,13 +3324,13 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -3318,12 +3339,12 @@
         <v>13</v>
       </c>
       <c r="I75" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -3332,13 +3353,13 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
@@ -3347,120 +3368,175 @@
         <v>13</v>
       </c>
       <c r="I76" t="s">
-        <v>254</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G77" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>257</v>
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="I78" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>155</v>
-      </c>
-      <c r="I79" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>165</v>
-      </c>
-      <c r="I80" t="s">
-        <v>269</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>226</v>
+      </c>
+      <c r="E82" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
